--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,51 +43,54 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>shortage</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -100,108 +103,108 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
@@ -211,19 +214,25 @@
     <t>store</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -656,38 +665,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>33</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -698,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,16 +736,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -824,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -877,16 +886,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.702054794520548</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="C8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.8518518518518519</v>
@@ -956,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6052631578947368</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,7 +1015,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4871794871794872</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -1024,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0.8414634146341463</v>
@@ -1056,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4533333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8297872340425532</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4161073825503356</v>
+        <v>0.436241610738255</v>
       </c>
       <c r="C12">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.828125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3798449612403101</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3728813559322034</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,7 +1265,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3506493506493507</v>
+        <v>0.36</v>
       </c>
       <c r="C15">
         <v>27</v>
@@ -1274,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3174603174603174</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7619047619047619</v>
+        <v>0.8</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2555555555555555</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7450980392156863</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2375</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>0.7358490566037735</v>
@@ -1456,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2222222222222222</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,31 +1483,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>0.73125</v>
+      </c>
+      <c r="L19">
+        <v>117</v>
+      </c>
+      <c r="M19">
+        <v>117</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L19">
-        <v>68</v>
-      </c>
-      <c r="M19">
-        <v>68</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,37 +1515,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1206434316353887</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20">
-        <v>45</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>328</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.69375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1548,21 +1557,45 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>330</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.66</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,21 +1607,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.6214099216710183</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L22">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6111111111111112</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1626,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1652,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1678,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5823529411764706</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L26">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M26">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1704,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5813953488372093</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1730,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5525423728813559</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L28">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1756,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5393258426966292</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1782,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5188284518828452</v>
+        <v>0.525</v>
       </c>
       <c r="L30">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1808,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1834,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.4871794871794872</v>
+        <v>0.453125</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1860,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.46875</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1886,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4615384615384616</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4383561643835616</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1964,47 +1997,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.2714285714285714</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.1076555023923445</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2016,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.1033653846153846</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2042,215 +2075,267 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.09182530795072788</v>
+        <v>0.09955257270693513</v>
       </c>
       <c r="L40">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M40">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.06888888888888889</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>838</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.04938271604938271</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>616</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.04067321178120617</v>
+        <v>0.07103218645948946</v>
       </c>
       <c r="L43">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="M43">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2052</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.03579676674364896</v>
+        <v>0.04728950403690888</v>
       </c>
       <c r="L44">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.02068252326783868</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>947</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.02063850370848113</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="L46">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N46">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3037</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.008780181875195987</v>
+        <v>0.03230337078651686</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="O47">
-        <v>0.3</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3161</v>
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>0.02229402261712439</v>
+      </c>
+      <c r="L48">
+        <v>69</v>
+      </c>
+      <c r="M48">
+        <v>81</v>
+      </c>
+      <c r="N48">
+        <v>0.85</v>
+      </c>
+      <c r="O48">
+        <v>0.15</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.00721681832444305</v>
+      </c>
+      <c r="L49">
+        <v>23</v>
+      </c>
+      <c r="M49">
+        <v>37</v>
+      </c>
+      <c r="N49">
+        <v>0.62</v>
+      </c>
+      <c r="O49">
+        <v>0.38</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3164</v>
       </c>
     </row>
   </sheetData>
